--- a/Code/Results/Cases/Case_3_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00581853682275</v>
+        <v>1.030684208087151</v>
       </c>
       <c r="D2">
-        <v>1.022026663581162</v>
+        <v>1.034887356340499</v>
       </c>
       <c r="E2">
-        <v>1.011462756051997</v>
+        <v>1.030356865316293</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043335770077709</v>
+        <v>1.034961916896347</v>
       </c>
       <c r="J2">
-        <v>1.027826598382161</v>
+        <v>1.035824093773262</v>
       </c>
       <c r="K2">
-        <v>1.033187429472147</v>
+        <v>1.037685540706643</v>
       </c>
       <c r="L2">
-        <v>1.022764673347033</v>
+        <v>1.033168112234957</v>
       </c>
       <c r="N2">
-        <v>1.013102583719669</v>
+        <v>1.01592527706619</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010096725254968</v>
+        <v>1.031580566828074</v>
       </c>
       <c r="D3">
-        <v>1.025150587047945</v>
+        <v>1.035560254178994</v>
       </c>
       <c r="E3">
-        <v>1.014865032642787</v>
+        <v>1.031116789960234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044534617689</v>
+        <v>1.03516174287468</v>
       </c>
       <c r="J3">
-        <v>1.030315877193639</v>
+        <v>1.03636228112593</v>
       </c>
       <c r="K3">
-        <v>1.035471465394272</v>
+        <v>1.038168082505965</v>
       </c>
       <c r="L3">
-        <v>1.025311181047225</v>
+        <v>1.033736504790379</v>
       </c>
       <c r="N3">
-        <v>1.013939647016721</v>
+        <v>1.016105074272378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012809586800022</v>
+        <v>1.032160930181338</v>
       </c>
       <c r="D4">
-        <v>1.027134085161381</v>
+        <v>1.035995913975872</v>
       </c>
       <c r="E4">
-        <v>1.01702827593178</v>
+        <v>1.031609204826596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045286048271315</v>
+        <v>1.035290018675422</v>
       </c>
       <c r="J4">
-        <v>1.031891202472847</v>
+        <v>1.036710255135312</v>
       </c>
       <c r="K4">
-        <v>1.036915694418067</v>
+        <v>1.038479889006968</v>
       </c>
       <c r="L4">
-        <v>1.026925438527682</v>
+        <v>1.034104324344477</v>
       </c>
       <c r="N4">
-        <v>1.014469233917947</v>
+        <v>1.016221280186754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013937247494962</v>
+        <v>1.032404999706855</v>
       </c>
       <c r="D5">
-        <v>1.027959138703415</v>
+        <v>1.036179123640458</v>
       </c>
       <c r="E5">
-        <v>1.017928830129438</v>
+        <v>1.031816380344058</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045596255883799</v>
+        <v>1.035343699828936</v>
       </c>
       <c r="J5">
-        <v>1.032545229104911</v>
+        <v>1.036856477844762</v>
       </c>
       <c r="K5">
-        <v>1.037514994052391</v>
+        <v>1.03861086832024</v>
       </c>
       <c r="L5">
-        <v>1.027596281406263</v>
+        <v>1.034258962047241</v>
       </c>
       <c r="N5">
-        <v>1.014689064942727</v>
+        <v>1.016270100436819</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014125846939428</v>
+        <v>1.032445984989005</v>
       </c>
       <c r="D6">
-        <v>1.028097159643665</v>
+        <v>1.036209888722399</v>
       </c>
       <c r="E6">
-        <v>1.018079524871967</v>
+        <v>1.031851175615</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045648010730707</v>
+        <v>1.035352698687861</v>
       </c>
       <c r="J6">
-        <v>1.032654566499876</v>
+        <v>1.036881025403881</v>
       </c>
       <c r="K6">
-        <v>1.03761516451099</v>
+        <v>1.03863285418383</v>
       </c>
       <c r="L6">
-        <v>1.027708468494328</v>
+        <v>1.034284926736336</v>
       </c>
       <c r="N6">
-        <v>1.014725813095081</v>
+        <v>1.016278295640882</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012824704488604</v>
+        <v>1.032164191118742</v>
       </c>
       <c r="D7">
-        <v>1.027145143842123</v>
+        <v>1.035998361805289</v>
       </c>
       <c r="E7">
-        <v>1.017040343677496</v>
+        <v>1.031611972472332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045290215492185</v>
+        <v>1.035290736932971</v>
       </c>
       <c r="J7">
-        <v>1.031899973681917</v>
+        <v>1.036712209229334</v>
       </c>
       <c r="K7">
-        <v>1.036923732876274</v>
+        <v>1.038481639569568</v>
       </c>
       <c r="L7">
-        <v>1.026934432679086</v>
+        <v>1.034106390597528</v>
       </c>
       <c r="N7">
-        <v>1.014472182241797</v>
+        <v>1.016221932654406</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007276115564081</v>
+        <v>1.030987061571722</v>
       </c>
       <c r="D8">
-        <v>1.023090414791046</v>
+        <v>1.035114712646262</v>
       </c>
       <c r="E8">
-        <v>1.012620668865954</v>
+        <v>1.030613541024705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043746035528407</v>
+        <v>1.035029660878715</v>
       </c>
       <c r="J8">
-        <v>1.028675338136963</v>
+        <v>1.03600603177514</v>
       </c>
       <c r="K8">
-        <v>1.033966437981933</v>
+        <v>1.037848706390425</v>
       </c>
       <c r="L8">
-        <v>1.023632356433664</v>
+        <v>1.033360195906966</v>
       </c>
       <c r="N8">
-        <v>1.013388015712813</v>
+        <v>1.015986068052986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9970535442552899</v>
+        <v>1.028915615919509</v>
       </c>
       <c r="D9">
-        <v>1.01564289378754</v>
+        <v>1.033559591854849</v>
       </c>
       <c r="E9">
-        <v>1.004526125878858</v>
+        <v>1.028859551829529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040832935180393</v>
+        <v>1.034561788594113</v>
       </c>
       <c r="J9">
-        <v>1.022710780237672</v>
+        <v>1.03475964452207</v>
       </c>
       <c r="K9">
-        <v>1.028487173659221</v>
+        <v>1.036730151163212</v>
       </c>
       <c r="L9">
-        <v>1.017546194203879</v>
+        <v>1.032045599972287</v>
       </c>
       <c r="N9">
-        <v>1.011381629583722</v>
+        <v>1.015569429875082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9899081826391262</v>
+        <v>1.027536612786333</v>
       </c>
       <c r="D10">
-        <v>1.01045612654752</v>
+        <v>1.03252426853354</v>
       </c>
       <c r="E10">
-        <v>0.9989037074148309</v>
+        <v>1.027693931262393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038752950137121</v>
+        <v>1.034244650386698</v>
       </c>
       <c r="J10">
-        <v>1.018528000063441</v>
+        <v>1.033927432780444</v>
       </c>
       <c r="K10">
-        <v>1.024639124336696</v>
+        <v>1.035982331624979</v>
       </c>
       <c r="L10">
-        <v>1.013292784014596</v>
+        <v>1.031169471322252</v>
       </c>
       <c r="N10">
-        <v>1.009974092508556</v>
+        <v>1.015291013795282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9867283478404624</v>
+        <v>1.026939969398341</v>
       </c>
       <c r="D11">
-        <v>1.008153201612493</v>
+        <v>1.032076318989031</v>
       </c>
       <c r="E11">
-        <v>0.9964107247921878</v>
+        <v>1.027190102890475</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03781746086192</v>
+        <v>1.034106094707009</v>
       </c>
       <c r="J11">
-        <v>1.016663858887487</v>
+        <v>1.033566784452929</v>
       </c>
       <c r="K11">
-        <v>1.022922981201278</v>
+        <v>1.035658029491525</v>
       </c>
       <c r="L11">
-        <v>1.01140064851373</v>
+        <v>1.030790176436805</v>
       </c>
       <c r="N11">
-        <v>1.009346712484565</v>
+        <v>1.015170305852657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9855336328666801</v>
+        <v>1.02671842188265</v>
       </c>
       <c r="D12">
-        <v>1.007288823727646</v>
+        <v>1.031909985043046</v>
       </c>
       <c r="E12">
-        <v>0.9954755020077488</v>
+        <v>1.027003094313781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037464549295514</v>
+        <v>1.034054444338613</v>
       </c>
       <c r="J12">
-        <v>1.015963109720582</v>
+        <v>1.033432780349137</v>
       </c>
       <c r="K12">
-        <v>1.022277701088556</v>
+        <v>1.035537496517714</v>
       </c>
       <c r="L12">
-        <v>1.010689900663004</v>
+        <v>1.030649301809476</v>
       </c>
       <c r="N12">
-        <v>1.00911086509354</v>
+        <v>1.015125447131128</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9857905294481261</v>
+        <v>1.026765941281393</v>
       </c>
       <c r="D13">
-        <v>1.007474648330769</v>
+        <v>1.031945661750083</v>
       </c>
       <c r="E13">
-        <v>0.9956765349540402</v>
+        <v>1.027043202122154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037540498973612</v>
+        <v>1.034065531862976</v>
       </c>
       <c r="J13">
-        <v>1.016113805624154</v>
+        <v>1.033461526624321</v>
       </c>
       <c r="K13">
-        <v>1.022416475630247</v>
+        <v>1.035563354522976</v>
       </c>
       <c r="L13">
-        <v>1.010842723050754</v>
+        <v>1.03067951931614</v>
       </c>
       <c r="N13">
-        <v>1.009161584358578</v>
+        <v>1.015135070487006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9866298735387955</v>
+        <v>1.026921654727716</v>
       </c>
       <c r="D14">
-        <v>1.008081937249848</v>
+        <v>1.032062568653346</v>
       </c>
       <c r="E14">
-        <v>0.9963336096640946</v>
+        <v>1.027174641925732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037788401006321</v>
+        <v>1.034101829034237</v>
       </c>
       <c r="J14">
-        <v>1.016606106754383</v>
+        <v>1.033555708508054</v>
       </c>
       <c r="K14">
-        <v>1.022869803818396</v>
+        <v>1.035648067675474</v>
       </c>
       <c r="L14">
-        <v>1.011342061668231</v>
+        <v>1.030778531436807</v>
       </c>
       <c r="N14">
-        <v>1.00932727532226</v>
+        <v>1.015166598271671</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9871452000068649</v>
+        <v>1.027017604550827</v>
       </c>
       <c r="D15">
-        <v>1.008454907043371</v>
+        <v>1.032134606117131</v>
       </c>
       <c r="E15">
-        <v>0.9967372200145158</v>
+        <v>1.027255644356384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037940416171855</v>
+        <v>1.034124168473054</v>
       </c>
       <c r="J15">
-        <v>1.016908315344347</v>
+        <v>1.033613731375531</v>
       </c>
       <c r="K15">
-        <v>1.023148066755887</v>
+        <v>1.035700252641048</v>
       </c>
       <c r="L15">
-        <v>1.011648659580579</v>
+        <v>1.030839537747883</v>
       </c>
       <c r="N15">
-        <v>1.009428986844335</v>
+        <v>1.015186020622141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9901173516691589</v>
+        <v>1.027576220131778</v>
       </c>
       <c r="D16">
-        <v>1.010607728973212</v>
+        <v>1.032554005022666</v>
       </c>
       <c r="E16">
-        <v>0.9990678904501551</v>
+        <v>1.02772738763919</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038814285079771</v>
+        <v>1.034253819948336</v>
       </c>
       <c r="J16">
-        <v>1.018650570263377</v>
+        <v>1.033951361696368</v>
       </c>
       <c r="K16">
-        <v>1.02475193988081</v>
+        <v>1.036003844231143</v>
       </c>
       <c r="L16">
-        <v>1.01341726754317</v>
+        <v>1.031194645546542</v>
       </c>
       <c r="N16">
-        <v>1.010015342293149</v>
+        <v>1.015299021617686</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9919582509044781</v>
+        <v>1.027926752681334</v>
       </c>
       <c r="D17">
-        <v>1.01194259520205</v>
+        <v>1.032817178275349</v>
       </c>
       <c r="E17">
-        <v>1.000513912046892</v>
+        <v>1.028023539917761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039352978367722</v>
+        <v>1.034334817266262</v>
       </c>
       <c r="J17">
-        <v>1.019729008281812</v>
+        <v>1.034163070022701</v>
       </c>
       <c r="K17">
-        <v>1.025744418293131</v>
+        <v>1.036194148443399</v>
       </c>
       <c r="L17">
-        <v>1.014512936519647</v>
+        <v>1.031417416088113</v>
       </c>
       <c r="N17">
-        <v>1.010378270934543</v>
+        <v>1.015369863767295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.993023782044761</v>
+        <v>1.028131258048344</v>
       </c>
       <c r="D18">
-        <v>1.012715726934755</v>
+        <v>1.032970716668881</v>
       </c>
       <c r="E18">
-        <v>1.001351744572424</v>
+        <v>1.028196366591737</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03966384110314</v>
+        <v>1.034381942650233</v>
       </c>
       <c r="J18">
-        <v>1.020352958079511</v>
+        <v>1.034286527356926</v>
       </c>
       <c r="K18">
-        <v>1.026318521692808</v>
+        <v>1.036305102190166</v>
       </c>
       <c r="L18">
-        <v>1.015147185866677</v>
+        <v>1.031547361495356</v>
       </c>
       <c r="N18">
-        <v>1.010588241811801</v>
+        <v>1.01541117010682</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9933857240215556</v>
+        <v>1.028200996802696</v>
       </c>
       <c r="D19">
-        <v>1.012978428334582</v>
+        <v>1.033023074994578</v>
       </c>
       <c r="E19">
-        <v>1.001636485555196</v>
+        <v>1.028255310571581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039769275092957</v>
+        <v>1.034397990989256</v>
       </c>
       <c r="J19">
-        <v>1.020564857081365</v>
+        <v>1.03432861824174</v>
       </c>
       <c r="K19">
-        <v>1.026513472882807</v>
+        <v>1.036342926463636</v>
       </c>
       <c r="L19">
-        <v>1.015362638677838</v>
+        <v>1.031591670692997</v>
       </c>
       <c r="N19">
-        <v>1.010659548358993</v>
+        <v>1.015425251997345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9917615963509956</v>
+        <v>1.02788913912465</v>
       </c>
       <c r="D20">
-        <v>1.01179994562923</v>
+        <v>1.032788938759733</v>
       </c>
       <c r="E20">
-        <v>1.000359350694302</v>
+        <v>1.027991756668221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039295529335446</v>
+        <v>1.03432613932315</v>
       </c>
       <c r="J20">
-        <v>1.019613830607925</v>
+        <v>1.034140358668151</v>
       </c>
       <c r="K20">
-        <v>1.025638432771811</v>
+        <v>1.036173735505655</v>
       </c>
       <c r="L20">
-        <v>1.014395884295128</v>
+        <v>1.031393514172415</v>
       </c>
       <c r="N20">
-        <v>1.010339510800422</v>
+        <v>1.015362264591343</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9863830883121414</v>
+        <v>1.026875798990621</v>
       </c>
       <c r="D21">
-        <v>1.007903356749712</v>
+        <v>1.032028140968505</v>
       </c>
       <c r="E21">
-        <v>0.9961403756640332</v>
+        <v>1.027135932420857</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03771555153646</v>
+        <v>1.03409114551368</v>
       </c>
       <c r="J21">
-        <v>1.01646136918995</v>
+        <v>1.033527975476099</v>
       </c>
       <c r="K21">
-        <v>1.02273652881495</v>
+        <v>1.03562312376216</v>
       </c>
       <c r="L21">
-        <v>1.01119524061608</v>
+        <v>1.03074937448388</v>
       </c>
       <c r="N21">
-        <v>1.009278562052326</v>
+        <v>1.015157314740423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9829224473034048</v>
+        <v>1.026239091324329</v>
       </c>
       <c r="D22">
-        <v>1.005401306216634</v>
+        <v>1.031550113046175</v>
       </c>
       <c r="E22">
-        <v>0.9934341679136871</v>
+        <v>1.026598627710578</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036690639189743</v>
+        <v>1.033942327716963</v>
       </c>
       <c r="J22">
-        <v>1.014430931465596</v>
+        <v>1.033142696123669</v>
       </c>
       <c r="K22">
-        <v>1.020866516230561</v>
+        <v>1.035276512101504</v>
       </c>
       <c r="L22">
-        <v>1.00913682708146</v>
+        <v>1.03034445051035</v>
       </c>
       <c r="N22">
-        <v>1.00859517525951</v>
+        <v>1.015028325139181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.984764724221547</v>
+        <v>1.026576581946604</v>
       </c>
       <c r="D23">
-        <v>1.006732771217229</v>
+        <v>1.0318034942426</v>
       </c>
       <c r="E23">
-        <v>0.9948740115654663</v>
+        <v>1.026883388087488</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037237020516334</v>
+        <v>1.03402131987162</v>
       </c>
       <c r="J23">
-        <v>1.015512017546978</v>
+        <v>1.033346963307249</v>
       </c>
       <c r="K23">
-        <v>1.02186227107628</v>
+        <v>1.035460296965367</v>
       </c>
       <c r="L23">
-        <v>1.010232520096008</v>
+        <v>1.030559101133385</v>
       </c>
       <c r="N23">
-        <v>1.008959041304383</v>
+        <v>1.015096717105038</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.991850481475228</v>
+        <v>1.027906134930875</v>
       </c>
       <c r="D24">
-        <v>1.011864419715664</v>
+        <v>1.032801698876755</v>
       </c>
       <c r="E24">
-        <v>1.000429207613566</v>
+        <v>1.028006117884861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039321498412264</v>
+        <v>1.034330060879796</v>
       </c>
       <c r="J24">
-        <v>1.019665890128198</v>
+        <v>1.034150621040003</v>
       </c>
       <c r="K24">
-        <v>1.02568633785313</v>
+        <v>1.036182959380381</v>
       </c>
       <c r="L24">
-        <v>1.01444879007543</v>
+        <v>1.031404314397404</v>
       </c>
       <c r="N24">
-        <v>1.010357030140955</v>
+        <v>1.015365698377281</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9997521565464514</v>
+        <v>1.029450794080499</v>
       </c>
       <c r="D25">
-        <v>1.017605932087348</v>
+        <v>1.033961383568162</v>
       </c>
       <c r="E25">
-        <v>1.006657066396757</v>
+        <v>1.029312353679041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04160967259585</v>
+        <v>1.034683668111716</v>
       </c>
       <c r="J25">
-        <v>1.024287864492121</v>
+        <v>1.035082097168086</v>
       </c>
       <c r="K25">
-        <v>1.029936950957454</v>
+        <v>1.037019702333743</v>
       </c>
       <c r="L25">
-        <v>1.019152911548082</v>
+        <v>1.032385412354722</v>
       </c>
       <c r="N25">
-        <v>1.011912237824349</v>
+        <v>1.015677258503249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030684208087151</v>
+        <v>1.005818536822749</v>
       </c>
       <c r="D2">
-        <v>1.034887356340499</v>
+        <v>1.022026663581161</v>
       </c>
       <c r="E2">
-        <v>1.030356865316293</v>
+        <v>1.011462756051997</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034961916896347</v>
+        <v>1.043335770077708</v>
       </c>
       <c r="J2">
-        <v>1.035824093773262</v>
+        <v>1.02782659838216</v>
       </c>
       <c r="K2">
-        <v>1.037685540706643</v>
+        <v>1.033187429472147</v>
       </c>
       <c r="L2">
-        <v>1.033168112234957</v>
+        <v>1.022764673347032</v>
       </c>
       <c r="N2">
-        <v>1.01592527706619</v>
+        <v>1.013102583719669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031580566828074</v>
+        <v>1.010096725254968</v>
       </c>
       <c r="D3">
-        <v>1.035560254178994</v>
+        <v>1.025150587047944</v>
       </c>
       <c r="E3">
-        <v>1.031116789960234</v>
+        <v>1.014865032642787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03516174287468</v>
+        <v>1.044534617689</v>
       </c>
       <c r="J3">
-        <v>1.03636228112593</v>
+        <v>1.030315877193638</v>
       </c>
       <c r="K3">
-        <v>1.038168082505965</v>
+        <v>1.035471465394272</v>
       </c>
       <c r="L3">
-        <v>1.033736504790379</v>
+        <v>1.025311181047224</v>
       </c>
       <c r="N3">
-        <v>1.016105074272378</v>
+        <v>1.013939647016721</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032160930181338</v>
+        <v>1.012809586800022</v>
       </c>
       <c r="D4">
-        <v>1.035995913975872</v>
+        <v>1.027134085161381</v>
       </c>
       <c r="E4">
-        <v>1.031609204826596</v>
+        <v>1.01702827593178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035290018675422</v>
+        <v>1.045286048271315</v>
       </c>
       <c r="J4">
-        <v>1.036710255135312</v>
+        <v>1.031891202472847</v>
       </c>
       <c r="K4">
-        <v>1.038479889006968</v>
+        <v>1.036915694418067</v>
       </c>
       <c r="L4">
-        <v>1.034104324344477</v>
+        <v>1.026925438527682</v>
       </c>
       <c r="N4">
-        <v>1.016221280186754</v>
+        <v>1.014469233917947</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032404999706855</v>
+        <v>1.013937247494964</v>
       </c>
       <c r="D5">
-        <v>1.036179123640458</v>
+        <v>1.027959138703417</v>
       </c>
       <c r="E5">
-        <v>1.031816380344058</v>
+        <v>1.017928830129439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035343699828936</v>
+        <v>1.0455962558838</v>
       </c>
       <c r="J5">
-        <v>1.036856477844762</v>
+        <v>1.032545229104913</v>
       </c>
       <c r="K5">
-        <v>1.03861086832024</v>
+        <v>1.037514994052392</v>
       </c>
       <c r="L5">
-        <v>1.034258962047241</v>
+        <v>1.027596281406264</v>
       </c>
       <c r="N5">
-        <v>1.016270100436819</v>
+        <v>1.014689064942728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032445984989005</v>
+        <v>1.014125846939427</v>
       </c>
       <c r="D6">
-        <v>1.036209888722399</v>
+        <v>1.028097159643664</v>
       </c>
       <c r="E6">
-        <v>1.031851175615</v>
+        <v>1.018079524871966</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035352698687861</v>
+        <v>1.045648010730706</v>
       </c>
       <c r="J6">
-        <v>1.036881025403881</v>
+        <v>1.032654566499875</v>
       </c>
       <c r="K6">
-        <v>1.03863285418383</v>
+        <v>1.03761516451099</v>
       </c>
       <c r="L6">
-        <v>1.034284926736336</v>
+        <v>1.027708468494328</v>
       </c>
       <c r="N6">
-        <v>1.016278295640882</v>
+        <v>1.01472581309508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032164191118742</v>
+        <v>1.012824704488604</v>
       </c>
       <c r="D7">
-        <v>1.035998361805289</v>
+        <v>1.027145143842124</v>
       </c>
       <c r="E7">
-        <v>1.031611972472332</v>
+        <v>1.017040343677497</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035290736932971</v>
+        <v>1.045290215492185</v>
       </c>
       <c r="J7">
-        <v>1.036712209229334</v>
+        <v>1.031899973681917</v>
       </c>
       <c r="K7">
-        <v>1.038481639569568</v>
+        <v>1.036923732876275</v>
       </c>
       <c r="L7">
-        <v>1.034106390597528</v>
+        <v>1.026934432679087</v>
       </c>
       <c r="N7">
-        <v>1.016221932654406</v>
+        <v>1.014472182241797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030987061571722</v>
+        <v>1.00727611556408</v>
       </c>
       <c r="D8">
-        <v>1.035114712646262</v>
+        <v>1.023090414791045</v>
       </c>
       <c r="E8">
-        <v>1.030613541024705</v>
+        <v>1.012620668865953</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035029660878715</v>
+        <v>1.043746035528406</v>
       </c>
       <c r="J8">
-        <v>1.03600603177514</v>
+        <v>1.028675338136962</v>
       </c>
       <c r="K8">
-        <v>1.037848706390425</v>
+        <v>1.033966437981932</v>
       </c>
       <c r="L8">
-        <v>1.033360195906966</v>
+        <v>1.023632356433663</v>
       </c>
       <c r="N8">
-        <v>1.015986068052986</v>
+        <v>1.013388015712812</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028915615919509</v>
+        <v>0.99705354425529</v>
       </c>
       <c r="D9">
-        <v>1.033559591854849</v>
+        <v>1.01564289378754</v>
       </c>
       <c r="E9">
-        <v>1.028859551829529</v>
+        <v>1.004526125878857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034561788594113</v>
+        <v>1.040832935180393</v>
       </c>
       <c r="J9">
-        <v>1.03475964452207</v>
+        <v>1.022710780237672</v>
       </c>
       <c r="K9">
-        <v>1.036730151163212</v>
+        <v>1.028487173659221</v>
       </c>
       <c r="L9">
-        <v>1.032045599972287</v>
+        <v>1.017546194203879</v>
       </c>
       <c r="N9">
-        <v>1.015569429875082</v>
+        <v>1.011381629583722</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027536612786333</v>
+        <v>0.9899081826391256</v>
       </c>
       <c r="D10">
-        <v>1.03252426853354</v>
+        <v>1.01045612654752</v>
       </c>
       <c r="E10">
-        <v>1.027693931262393</v>
+        <v>0.9989037074148299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034244650386698</v>
+        <v>1.038752950137121</v>
       </c>
       <c r="J10">
-        <v>1.033927432780444</v>
+        <v>1.01852800006344</v>
       </c>
       <c r="K10">
-        <v>1.035982331624979</v>
+        <v>1.024639124336695</v>
       </c>
       <c r="L10">
-        <v>1.031169471322252</v>
+        <v>1.013292784014595</v>
       </c>
       <c r="N10">
-        <v>1.015291013795282</v>
+        <v>1.009974092508555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026939969398341</v>
+        <v>0.9867283478404615</v>
       </c>
       <c r="D11">
-        <v>1.032076318989031</v>
+        <v>1.008153201612492</v>
       </c>
       <c r="E11">
-        <v>1.027190102890475</v>
+        <v>0.996410724792187</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034106094707009</v>
+        <v>1.037817460861919</v>
       </c>
       <c r="J11">
-        <v>1.033566784452929</v>
+        <v>1.016663858887487</v>
       </c>
       <c r="K11">
-        <v>1.035658029491525</v>
+        <v>1.022922981201278</v>
       </c>
       <c r="L11">
-        <v>1.030790176436805</v>
+        <v>1.01140064851373</v>
       </c>
       <c r="N11">
-        <v>1.015170305852657</v>
+        <v>1.009346712484565</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02671842188265</v>
+        <v>0.9855336328666789</v>
       </c>
       <c r="D12">
-        <v>1.031909985043046</v>
+        <v>1.007288823727645</v>
       </c>
       <c r="E12">
-        <v>1.027003094313781</v>
+        <v>0.9954755020077479</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034054444338613</v>
+        <v>1.037464549295514</v>
       </c>
       <c r="J12">
-        <v>1.033432780349137</v>
+        <v>1.015963109720581</v>
       </c>
       <c r="K12">
-        <v>1.035537496517714</v>
+        <v>1.022277701088555</v>
       </c>
       <c r="L12">
-        <v>1.030649301809476</v>
+        <v>1.010689900663003</v>
       </c>
       <c r="N12">
-        <v>1.015125447131128</v>
+        <v>1.009110865093539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026765941281393</v>
+        <v>0.9857905294481262</v>
       </c>
       <c r="D13">
-        <v>1.031945661750083</v>
+        <v>1.007474648330769</v>
       </c>
       <c r="E13">
-        <v>1.027043202122154</v>
+        <v>0.9956765349540402</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034065531862976</v>
+        <v>1.037540498973612</v>
       </c>
       <c r="J13">
-        <v>1.033461526624321</v>
+        <v>1.016113805624154</v>
       </c>
       <c r="K13">
-        <v>1.035563354522976</v>
+        <v>1.022416475630247</v>
       </c>
       <c r="L13">
-        <v>1.03067951931614</v>
+        <v>1.010842723050754</v>
       </c>
       <c r="N13">
-        <v>1.015135070487006</v>
+        <v>1.009161584358578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026921654727716</v>
+        <v>0.9866298735387957</v>
       </c>
       <c r="D14">
-        <v>1.032062568653346</v>
+        <v>1.008081937249848</v>
       </c>
       <c r="E14">
-        <v>1.027174641925732</v>
+        <v>0.9963336096640947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034101829034237</v>
+        <v>1.037788401006321</v>
       </c>
       <c r="J14">
-        <v>1.033555708508054</v>
+        <v>1.016606106754384</v>
       </c>
       <c r="K14">
-        <v>1.035648067675474</v>
+        <v>1.022869803818396</v>
       </c>
       <c r="L14">
-        <v>1.030778531436807</v>
+        <v>1.011342061668231</v>
       </c>
       <c r="N14">
-        <v>1.015166598271671</v>
+        <v>1.00932727532226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027017604550827</v>
+        <v>0.9871452000068652</v>
       </c>
       <c r="D15">
-        <v>1.032134606117131</v>
+        <v>1.008454907043371</v>
       </c>
       <c r="E15">
-        <v>1.027255644356384</v>
+        <v>0.9967372200145163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034124168473054</v>
+        <v>1.037940416171856</v>
       </c>
       <c r="J15">
-        <v>1.033613731375531</v>
+        <v>1.016908315344347</v>
       </c>
       <c r="K15">
-        <v>1.035700252641048</v>
+        <v>1.023148066755887</v>
       </c>
       <c r="L15">
-        <v>1.030839537747883</v>
+        <v>1.011648659580579</v>
       </c>
       <c r="N15">
-        <v>1.015186020622141</v>
+        <v>1.009428986844335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027576220131778</v>
+        <v>0.990117351669159</v>
       </c>
       <c r="D16">
-        <v>1.032554005022666</v>
+        <v>1.010607728973212</v>
       </c>
       <c r="E16">
-        <v>1.02772738763919</v>
+        <v>0.9990678904501552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034253819948336</v>
+        <v>1.038814285079771</v>
       </c>
       <c r="J16">
-        <v>1.033951361696368</v>
+        <v>1.018650570263377</v>
       </c>
       <c r="K16">
-        <v>1.036003844231143</v>
+        <v>1.02475193988081</v>
       </c>
       <c r="L16">
-        <v>1.031194645546542</v>
+        <v>1.01341726754317</v>
       </c>
       <c r="N16">
-        <v>1.015299021617686</v>
+        <v>1.010015342293149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027926752681334</v>
+        <v>0.9919582509044769</v>
       </c>
       <c r="D17">
-        <v>1.032817178275349</v>
+        <v>1.011942595202049</v>
       </c>
       <c r="E17">
-        <v>1.028023539917761</v>
+        <v>1.00051391204689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034334817266262</v>
+        <v>1.039352978367722</v>
       </c>
       <c r="J17">
-        <v>1.034163070022701</v>
+        <v>1.019729008281811</v>
       </c>
       <c r="K17">
-        <v>1.036194148443399</v>
+        <v>1.025744418293129</v>
       </c>
       <c r="L17">
-        <v>1.031417416088113</v>
+        <v>1.014512936519646</v>
       </c>
       <c r="N17">
-        <v>1.015369863767295</v>
+        <v>1.010378270934543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028131258048344</v>
+        <v>0.9930237820447612</v>
       </c>
       <c r="D18">
-        <v>1.032970716668881</v>
+        <v>1.012715726934755</v>
       </c>
       <c r="E18">
-        <v>1.028196366591737</v>
+        <v>1.001351744572424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034381942650233</v>
+        <v>1.03966384110314</v>
       </c>
       <c r="J18">
-        <v>1.034286527356926</v>
+        <v>1.02035295807951</v>
       </c>
       <c r="K18">
-        <v>1.036305102190166</v>
+        <v>1.026318521692808</v>
       </c>
       <c r="L18">
-        <v>1.031547361495356</v>
+        <v>1.015147185866677</v>
       </c>
       <c r="N18">
-        <v>1.01541117010682</v>
+        <v>1.010588241811801</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028200996802696</v>
+        <v>0.9933857240215548</v>
       </c>
       <c r="D19">
-        <v>1.033023074994578</v>
+        <v>1.012978428334581</v>
       </c>
       <c r="E19">
-        <v>1.028255310571581</v>
+        <v>1.001636485555195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034397990989256</v>
+        <v>1.039769275092956</v>
       </c>
       <c r="J19">
-        <v>1.03432861824174</v>
+        <v>1.020564857081364</v>
       </c>
       <c r="K19">
-        <v>1.036342926463636</v>
+        <v>1.026513472882806</v>
       </c>
       <c r="L19">
-        <v>1.031591670692997</v>
+        <v>1.015362638677837</v>
       </c>
       <c r="N19">
-        <v>1.015425251997345</v>
+        <v>1.010659548358993</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02788913912465</v>
+        <v>0.9917615963509951</v>
       </c>
       <c r="D20">
-        <v>1.032788938759733</v>
+        <v>1.01179994562923</v>
       </c>
       <c r="E20">
-        <v>1.027991756668221</v>
+        <v>1.000359350694302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03432613932315</v>
+        <v>1.039295529335446</v>
       </c>
       <c r="J20">
-        <v>1.034140358668151</v>
+        <v>1.019613830607925</v>
       </c>
       <c r="K20">
-        <v>1.036173735505655</v>
+        <v>1.025638432771811</v>
       </c>
       <c r="L20">
-        <v>1.031393514172415</v>
+        <v>1.014395884295127</v>
       </c>
       <c r="N20">
-        <v>1.015362264591343</v>
+        <v>1.010339510800422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026875798990621</v>
+        <v>0.9863830883121421</v>
       </c>
       <c r="D21">
-        <v>1.032028140968505</v>
+        <v>1.007903356749713</v>
       </c>
       <c r="E21">
-        <v>1.027135932420857</v>
+        <v>0.9961403756640339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03409114551368</v>
+        <v>1.03771555153646</v>
       </c>
       <c r="J21">
-        <v>1.033527975476099</v>
+        <v>1.01646136918995</v>
       </c>
       <c r="K21">
-        <v>1.03562312376216</v>
+        <v>1.022736528814951</v>
       </c>
       <c r="L21">
-        <v>1.03074937448388</v>
+        <v>1.01119524061608</v>
       </c>
       <c r="N21">
-        <v>1.015157314740423</v>
+        <v>1.009278562052326</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026239091324329</v>
+        <v>0.9829224473034064</v>
       </c>
       <c r="D22">
-        <v>1.031550113046175</v>
+        <v>1.005401306216636</v>
       </c>
       <c r="E22">
-        <v>1.026598627710578</v>
+        <v>0.9934341679136885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033942327716963</v>
+        <v>1.036690639189744</v>
       </c>
       <c r="J22">
-        <v>1.033142696123669</v>
+        <v>1.014430931465597</v>
       </c>
       <c r="K22">
-        <v>1.035276512101504</v>
+        <v>1.020866516230563</v>
       </c>
       <c r="L22">
-        <v>1.03034445051035</v>
+        <v>1.009136827081461</v>
       </c>
       <c r="N22">
-        <v>1.015028325139181</v>
+        <v>1.008595175259511</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026576581946604</v>
+        <v>0.9847647242215459</v>
       </c>
       <c r="D23">
-        <v>1.0318034942426</v>
+        <v>1.006732771217228</v>
       </c>
       <c r="E23">
-        <v>1.026883388087488</v>
+        <v>0.9948740115654653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03402131987162</v>
+        <v>1.037237020516333</v>
       </c>
       <c r="J23">
-        <v>1.033346963307249</v>
+        <v>1.015512017546977</v>
       </c>
       <c r="K23">
-        <v>1.035460296965367</v>
+        <v>1.021862271076279</v>
       </c>
       <c r="L23">
-        <v>1.030559101133385</v>
+        <v>1.010232520096007</v>
       </c>
       <c r="N23">
-        <v>1.015096717105038</v>
+        <v>1.008959041304383</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027906134930875</v>
+        <v>0.991850481475228</v>
       </c>
       <c r="D24">
-        <v>1.032801698876755</v>
+        <v>1.011864419715665</v>
       </c>
       <c r="E24">
-        <v>1.028006117884861</v>
+        <v>1.000429207613565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034330060879796</v>
+        <v>1.039321498412264</v>
       </c>
       <c r="J24">
-        <v>1.034150621040003</v>
+        <v>1.019665890128198</v>
       </c>
       <c r="K24">
-        <v>1.036182959380381</v>
+        <v>1.02568633785313</v>
       </c>
       <c r="L24">
-        <v>1.031404314397404</v>
+        <v>1.01444879007543</v>
       </c>
       <c r="N24">
-        <v>1.015365698377281</v>
+        <v>1.010357030140955</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029450794080499</v>
+        <v>0.9997521565464508</v>
       </c>
       <c r="D25">
-        <v>1.033961383568162</v>
+        <v>1.017605932087348</v>
       </c>
       <c r="E25">
-        <v>1.029312353679041</v>
+        <v>1.006657066396756</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034683668111716</v>
+        <v>1.04160967259585</v>
       </c>
       <c r="J25">
-        <v>1.035082097168086</v>
+        <v>1.02428786449212</v>
       </c>
       <c r="K25">
-        <v>1.037019702333743</v>
+        <v>1.029936950957454</v>
       </c>
       <c r="L25">
-        <v>1.032385412354722</v>
+        <v>1.019152911548081</v>
       </c>
       <c r="N25">
-        <v>1.015677258503249</v>
+        <v>1.011912237824348</v>
       </c>
     </row>
   </sheetData>
